--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="キャラクタ情報リクエスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="キャラクタ情報レスポンス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t xml:space="preserve">LastY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCharacterDataSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCharacterDataSave</t>
   </si>
 </sst>
 </file>
@@ -484,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,4 +653,142 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -244,7 +244,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,7 +316,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,10 +660,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,14 +706,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,6 +779,17 @@
         <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -86,15 +86,18 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastAreaId</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketCharacterDataRequest</t>
   </si>
   <si>
     <t xml:space="preserve">CacheCharacterDataRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">u32</t>
-  </si>
-  <si>
     <t xml:space="preserve">CustomerId</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastAreaId</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
@@ -244,7 +244,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A9:C9 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,10 +313,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,6 +399,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +431,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A9:C9 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,10 +478,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +503,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A9:C9 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,10 +627,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,8 +673,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A9:C9 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -710,10 +721,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +768,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,10 +776,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">LastY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastZ</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataSave</t>
@@ -244,7 +247,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A9:C9 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,8 +318,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,7 +434,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A9:C9 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,10 +503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A9:C9 A14"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,6 +656,17 @@
       </c>
       <c r="C14" s="0" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -671,10 +685,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A9:C9 C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,6 +816,17 @@
       </c>
       <c r="C12" s="0" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">$BASE_CLASS_NAME$</t>
   </si>
   <si>
-    <t xml:space="preserve">CachePacketBase</t>
+    <t xml:space="preserve">ProcessPacketBase</t>
   </si>
   <si>
     <t xml:space="preserve">$FOR_CACHE_SERVER$</t>
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,7 +319,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -687,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="キャラクタ情報リクエスト" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="キャラクタ情報レスポンス" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="キャラクタ作成リクエスト" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="キャラクタ作成結果" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="キャラクタ情報リクエスト" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="キャラクタ情報レスポンス" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -90,6 +92,21 @@
   </si>
   <si>
     <t xml:space="preserve">LastAreaId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCharacterCreateRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCharacterCreateRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCreateCharacterResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCreateCharacterResult</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataRequest</t>
@@ -246,7 +263,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -481,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -499,6 +516,171 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -521,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -703,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,7 +920,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +953,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +964,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,10 +994,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoCharacter</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -333,10 +336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,13 +404,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,21 +418,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +536,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -537,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,10 +793,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,10 +804,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,10 +815,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,10 +837,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,10 +859,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,10 +942,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +975,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,10 +997,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">s32</t>
   </si>
   <si>
-    <t xml:space="preserve">Uuid</t>
+    <t xml:space="preserve">CustomerId</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">CacheCharacterDataRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustomerId</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataResult</t>
@@ -339,7 +336,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +942,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +975,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,10 +994,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t xml:space="preserve">CacheCharacterCreateRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StringPack.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StringPack&lt;32&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
@@ -335,7 +344,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -459,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,21 +507,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +851,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,10 +862,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,10 +873,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,7 +959,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +981,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +992,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,10 +1011,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +1033,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -97,10 +97,10 @@
     <t xml:space="preserve">LastAreaId</t>
   </si>
   <si>
-    <t xml:space="preserve">CachePacketCharacterCreateRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheCharacterCreateRequest</t>
+    <t xml:space="preserve">CachePacketCreateCharacterRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCreateCharacterRequest</t>
   </si>
   <si>
     <t xml:space="preserve">$INCLUDE$</t>
@@ -471,7 +471,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,9 +526,20 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -101,15 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">CacheCreateCharacterRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$INCLUDE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StringPack.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StringPack&lt;32&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
@@ -468,10 +459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,18 +498,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,21 +520,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +975,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,10 +1027,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">CacheCharacterDataResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">MaxHp</t>
@@ -461,7 +464,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -707,10 +710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,13 +789,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -834,10 +837,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>38</v>
@@ -867,10 +870,21 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +978,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,10 @@
     <sheet name="キャラクタ作成結果" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="キャラクタ情報リクエスト" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="キャラクタ情報レスポンス" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="スクリプトフラグリクエスト" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="スクリプトフラグレスポンス" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="スクリプトフラグ保存リクエスト" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -149,6 +152,33 @@
   </si>
   <si>
     <t xml:space="preserve">LastZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketScriptFlagRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheScriptFlagRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketScriptFlagResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheScriptFlagResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BitField1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BitField2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BitField3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketScriptFlagSaveRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheScriptFlagSaveRequest</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataSave</t>
@@ -331,6 +361,166 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -712,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -903,7 +1093,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -955,96 +1145,207 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>33</v>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>40</v>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="52">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -1165,10 +1165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1212,24 +1212,24 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,9 +1237,42 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1261,7 +1294,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="53">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCreateCharacterResult</t>
@@ -384,7 +387,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,7 +433,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,7 +444,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +455,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,7 +466,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,10 +485,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -652,10 +655,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -717,6 +720,17 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,10 +914,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -918,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,18 +1000,18 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>33</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,10 +1052,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,10 +1063,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>39</v>
@@ -1071,10 +1085,21 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1192,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1381,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="スクリプトフラグレスポンス" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="スクリプトフラグ保存リクエスト" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="キャラクタ保存リクエスト" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="ゴールド保存リクエスト" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="56">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -145,6 +146,9 @@
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
@@ -188,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">CacheCharacterDataSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketGoldSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheGoldSave</t>
   </si>
 </sst>
 </file>
@@ -300,7 +310,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,7 +382,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,10 +506,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,10 +517,93 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="A7:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +625,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="A7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,7 +751,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,7 +845,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A7:C14 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,7 +938,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,10 +1007,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="1" sqref="A7:C14 D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>40</v>
@@ -1096,10 +1189,21 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1225,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1136,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,7 +1297,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1208,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1424,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1485,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
   </si>
   <si>
     <t xml:space="preserve">MaxHp</t>
@@ -310,7 +313,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,10 +382,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,11 +439,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>34</v>
@@ -484,10 +487,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,10 +498,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>41</v>
@@ -517,10 +520,21 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -541,8 +555,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="A7:C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +639,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="A7:C14"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +765,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A7:C14"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,7 +859,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A7:C14 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -938,7 +952,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,10 +1021,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="1" sqref="A7:C14 D14"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1108,13 +1122,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1156,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>38</v>
@@ -1170,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,10 +1192,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>41</v>
@@ -1200,10 +1214,21 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1250,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1322,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:C14"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1312,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1449,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C14 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1439,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">CacheCharacterDataResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterId</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -384,8 +387,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,7 +438,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +449,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,7 +460,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +471,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,7 +482,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,7 +493,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +559,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -571,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +620,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1021,10 +1024,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,10 +1107,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,10 +1118,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,20 +1129,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1181,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>39</v>
@@ -1195,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>42</v>
@@ -1225,10 +1228,21 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1264,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1265,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1448,8 +1462,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,11 +14,13 @@
     <sheet name="キャラクタ作成結果" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="キャラクタ情報リクエスト" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="キャラクタ情報レスポンス" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="スクリプトフラグリクエスト" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="スクリプトフラグレスポンス" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="スクリプトフラグ保存リクエスト" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="ゴールド保存リクエスト" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="スキルリストリクエスト" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="スキルリストレスポンス" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="スクリプトフラグリクエスト" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="スクリプトフラグレスポンス" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="スクリプトフラグ保存リクエスト" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="ゴールド保存リクエスト" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="67">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -165,6 +167,33 @@
   </si>
   <si>
     <t xml:space="preserve">LastZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSkillListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSkillListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NormalAttackId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId4</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketScriptFlagRequest</t>
@@ -385,6 +414,238 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -403,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,7 +812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -574,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1287,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1257,6 +1518,194 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1279,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,239 +1769,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -1594,10 +1594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1641,46 +1641,46 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,13 +1691,46 @@
         <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1769,7 +1802,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,8 +19,9 @@
     <sheet name="スクリプトフラグリクエスト" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="スクリプトフラグレスポンス" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="スクリプトフラグ保存リクエスト" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="ゴールド保存リクエスト" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="スキルリスト保存リクエスト" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="ゴールド保存リクエスト" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="69">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -221,6 +222,12 @@
   </si>
   <si>
     <t xml:space="preserve">CacheScriptFlagSaveRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveSkillListRequest</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataSave</t>
@@ -316,12 +323,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -646,6 +657,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -664,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -835,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1723,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,8 +20,10 @@
     <sheet name="スクリプトフラグレスポンス" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="スクリプトフラグ保存リクエスト" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="スキルリスト保存リクエスト" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="ゴールド保存リクエスト" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="スキルツリーリクエスト" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="スキルツリーレスポンス" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="ゴールド保存リクエスト" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="75">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -228,6 +230,24 @@
   </si>
   <si>
     <t xml:space="preserve">CacheSaveSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSkillTreeRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSkillTreeeRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSkillTreeResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSkillTreeeResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;u32&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenedList</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataSave</t>
@@ -323,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,6 +353,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,6 +793,150 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -791,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,7 +1107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -962,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -235,13 +235,13 @@
     <t xml:space="preserve">CachePacketSkillTreeRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">CacheSkillTreeeRequest</t>
+    <t xml:space="preserve">CacheSkillTreeRequest</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketSkillTreeResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">CacheSkillTreeeResponse</t>
+    <t xml:space="preserve">CacheSkillTreeResponse</t>
   </si>
   <si>
     <t xml:space="preserve">FlexArray&lt;u32&gt;</t>
@@ -343,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,10 +353,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,7 +448,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -799,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -822,7 +818,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -869,10 +865,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,12 +912,45 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,8 +22,9 @@
     <sheet name="スキルリスト保存リクエスト" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="スキルツリーリクエスト" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="スキルツリーレスポンス" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="ゴールド保存リクエスト" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="スキルツリー開放" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="ゴールド保存リクエスト" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="78">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -248,6 +249,15 @@
   </si>
   <si>
     <t xml:space="preserve">OpenedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketOpenSkillTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheOpenSkillTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeId</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketCharacterDataSave</t>
@@ -795,7 +805,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -970,6 +980,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -988,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,7 +1229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1159,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,11 +20,12 @@
     <sheet name="スクリプトフラグレスポンス" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="スクリプトフラグ保存リクエスト" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="スキルリスト保存リクエスト" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="スキルツリーリクエスト" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="スキルツリーレスポンス" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="スキルツリー開放" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="キャラクタ保存リクエスト" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="ゴールド保存リクエスト" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="スキルリスト保存レスポンス" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="スキルツリーリクエスト" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="スキルツリーレスポンス" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="スキルツリー開放" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="キャラクタ保存リクエスト" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="ゴールド保存リクエスト" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="80">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -231,6 +232,12 @@
   </si>
   <si>
     <t xml:space="preserve">CacheSaveSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveSkillListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveSkillListResponse</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketSkillTreeRequest</t>
@@ -803,6 +810,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -821,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -893,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -975,14 +1076,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1081,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1252,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="80">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -810,10 +810,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,6 +886,50 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,6 +26,9 @@
     <sheet name="スキルツリー開放" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="キャラクタ保存リクエスト" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="ゴールド保存リクエスト" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="アイテムリストリクエスト" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="アイテムリストレスポンス" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="アイテム消費リクエスト" sheetId="21" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="93">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -277,6 +280,45 @@
   </si>
   <si>
     <t xml:space="preserve">CacheGoldSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketItemListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketItemListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;ItemData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketItemSubtractRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemSubtractRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
   </si>
 </sst>
 </file>
@@ -812,7 +854,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1457,6 +1499,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1570,6 +1684,188 @@
       </c>
       <c r="C10" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -28,7 +28,8 @@
     <sheet name="ゴールド保存リクエスト" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="アイテムリストリクエスト" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="アイテムリストレスポンス" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="アイテム消費リクエスト" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="アイテム追加リクエスト" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="アイテム消費リクエスト" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="95">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -309,16 +310,22 @@
     <t xml:space="preserve">Items</t>
   </si>
   <si>
+    <t xml:space="preserve">CachePacketItemAddRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemAddRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketItemSubtractRequest</t>
   </si>
   <si>
     <t xml:space="preserve">CacheItemSubtractRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
   </si>
 </sst>
 </file>
@@ -1793,6 +1800,100 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -28,8 +28,7 @@
     <sheet name="ゴールド保存リクエスト" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="アイテムリストリクエスト" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="アイテムリストレスポンス" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="アイテム追加リクエスト" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="アイテム消費リクエスト" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="アイテム数変化リクエスト" sheetId="21" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="93">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -310,22 +309,16 @@
     <t xml:space="preserve">Items</t>
   </si>
   <si>
-    <t xml:space="preserve">CachePacketItemAddRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheItemAddRequest</t>
+    <t xml:space="preserve">CachePacketItemCountChangeRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemCountChangeRequest</t>
   </si>
   <si>
     <t xml:space="preserve">ItemId</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CachePacketItemSubtractRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheItemSubtractRequest</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1793,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1824,100 +1817,6 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="93">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -1702,10 +1702,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1765,12 +1765,45 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1792,7 +1825,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,9 @@
     <sheet name="アイテムリストリクエスト" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="アイテムリストレスポンス" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="アイテム数変化リクエスト" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="アイテムショートカットリクエスト" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="アイテムショートカットレスポンス" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="アイテムショートカット保存リクエスト" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="101">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -319,6 +322,30 @@
   </si>
   <si>
     <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketItemShortcutRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemShortcutRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketItemShortcutResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheItemShortcutResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveItemShortcutRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveItemShortcutRequest</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1731,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1912,6 +1939,288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <sheet name="アイテムショートカットリクエスト" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="アイテムショートカットレスポンス" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="アイテムショートカット保存リクエスト" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="アイテムショートカット保存レスポンス" sheetId="25" state="visible" r:id="rId26"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="103">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -346,6 +347,12 @@
   </si>
   <si>
     <t xml:space="preserve">CacheSaveItemShortcutRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveItemShortcutResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveItemShortcutResponse</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2141,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2208,6 +2215,100 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="103">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -2233,10 +2233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2309,6 +2309,28 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,9 @@
     <sheet name="アイテムショートカットレスポンス" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="アイテムショートカット保存リクエスト" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="アイテムショートカット保存レスポンス" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="クエストデータリクエスト" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="クエストデータレスポンス" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="クエストデータ保存リクエスト" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="114">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -353,6 +356,39 @@
   </si>
   <si>
     <t xml:space="preserve">CacheSaveItemShortcutResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketQuestDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheQuestDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketQuestDataResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheQuestDataResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;QuestData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveQuestDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveQuestDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2271,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2331,6 +2367,257 @@
       </c>
       <c r="C9" s="0" t="s">
         <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,7 @@
     <sheet name="クエストデータリクエスト" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="クエストデータレスポンス" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="クエストデータ保存リクエスト" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="クエスト破棄リクエスト" sheetId="29" state="visible" r:id="rId30"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="117">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -389,6 +390,15 @@
   </si>
   <si>
     <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketQuestRetireRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheQuestRetireRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestId</t>
   </si>
 </sst>
 </file>
@@ -2547,6 +2557,97 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
@@ -2563,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="117">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -2467,10 +2467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2530,12 +2530,45 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2648,7 +2681,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,6 +37,7 @@
     <sheet name="クエストデータレスポンス" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="クエストデータ保存リクエスト" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="クエスト破棄リクエスト" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="アクティブクエスト保存リクエスト" sheetId="30" state="visible" r:id="rId31"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="120">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -380,6 +381,9 @@
     <t xml:space="preserve">Quests</t>
   </si>
   <si>
+    <t xml:space="preserve">ActiveQuestId</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketSaveQuestDataRequest</t>
   </si>
   <si>
@@ -399,6 +403,12 @@
   </si>
   <si>
     <t xml:space="preserve">QuestId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveActiveQuestRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveActiveQuestRequest</t>
   </si>
 </sst>
 </file>
@@ -2467,10 +2477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2570,6 +2580,17 @@
       </c>
       <c r="C10" s="0" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2606,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2679,10 +2700,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2697,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,10 +2747,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,18 +2764,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2859,6 +2872,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="162">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -81,6 +81,9 @@
     <t xml:space="preserve">UserCode</t>
   </si>
   <si>
+    <t xml:space="preserve">ユーザコード</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketLogInResult</t>
   </si>
   <si>
@@ -96,30 +99,48 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">NoCharacter</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタがいない</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
   </si>
   <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">Result</t>
   </si>
   <si>
+    <t xml:space="preserve">結果</t>
+  </si>
+  <si>
     <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerId</t>
   </si>
   <si>
+    <t xml:space="preserve">カスタマID</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">LastAreaId</t>
   </si>
   <si>
+    <t xml:space="preserve">最終ログアウトエリアID</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketCreateCharacterRequest</t>
   </si>
   <si>
@@ -129,9 +150,15 @@
     <t xml:space="preserve">CharacterName</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタ名</t>
+  </si>
+  <si>
     <t xml:space="preserve">Job</t>
   </si>
   <si>
+    <t xml:space="preserve">ジョブ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketCreateCharacterResult</t>
   </si>
   <si>
@@ -144,6 +171,9 @@
     <t xml:space="preserve">CacheCharacterDataRequest</t>
   </si>
   <si>
+    <t xml:space="preserve">カスタマＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketCharacterDataResult</t>
   </si>
   <si>
@@ -153,39 +183,75 @@
     <t xml:space="preserve">CharacterId</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">名前</t>
+  </si>
+  <si>
     <t xml:space="preserve">Level</t>
   </si>
   <si>
+    <t xml:space="preserve">レベル</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaxHp</t>
   </si>
   <si>
+    <t xml:space="preserve">最大ＨＰ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atk</t>
   </si>
   <si>
+    <t xml:space="preserve">攻撃力</t>
+  </si>
+  <si>
     <t xml:space="preserve">Def</t>
   </si>
   <si>
+    <t xml:space="preserve">防御力</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
+    <t xml:space="preserve">経験値</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gold</t>
   </si>
   <si>
+    <t xml:space="preserve">ゴールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最終ログアウトエリアＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">LastX</t>
   </si>
   <si>
+    <t xml:space="preserve">最終ログアウトＸ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">LastY</t>
   </si>
   <si>
+    <t xml:space="preserve">最終ログアウトＹ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">LastZ</t>
   </si>
   <si>
+    <t xml:space="preserve">最終ログアウトＺ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketSkillListRequest</t>
   </si>
   <si>
@@ -201,18 +267,33 @@
     <t xml:space="preserve">NormalAttackId</t>
   </si>
   <si>
+    <t xml:space="preserve">通常攻撃ＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">SkillId1</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ１</t>
+  </si>
+  <si>
     <t xml:space="preserve">SkillId2</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ２</t>
+  </si>
+  <si>
     <t xml:space="preserve">SkillId3</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ３</t>
+  </si>
+  <si>
     <t xml:space="preserve">SkillId4</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ４</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketScriptFlagRequest</t>
   </si>
   <si>
@@ -228,12 +309,21 @@
     <t xml:space="preserve">BitField1</t>
   </si>
   <si>
+    <t xml:space="preserve">ビットフィールド１</t>
+  </si>
+  <si>
     <t xml:space="preserve">BitField2</t>
   </si>
   <si>
+    <t xml:space="preserve">ビットフィールド２</t>
+  </si>
+  <si>
     <t xml:space="preserve">BitField3</t>
   </si>
   <si>
+    <t xml:space="preserve">ビットフィールド３</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketScriptFlagSaveRequest</t>
   </si>
   <si>
@@ -270,6 +360,9 @@
     <t xml:space="preserve">OpenedList</t>
   </si>
   <si>
+    <t xml:space="preserve">開いているノードリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketOpenSkillTree</t>
   </si>
   <si>
@@ -279,6 +372,9 @@
     <t xml:space="preserve">NodeId</t>
   </si>
   <si>
+    <t xml:space="preserve">ノードＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketCharacterDataSave</t>
   </si>
   <si>
@@ -318,6 +414,9 @@
     <t xml:space="preserve">Items</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketItemCountChangeRequest</t>
   </si>
   <si>
@@ -327,9 +426,15 @@
     <t xml:space="preserve">ItemId</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
+    <t xml:space="preserve">個数</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketItemShortcutRequest</t>
   </si>
   <si>
@@ -345,9 +450,15 @@
     <t xml:space="preserve">ItemId1</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムＩＤ１</t>
+  </si>
+  <si>
     <t xml:space="preserve">ItemId2</t>
   </si>
   <si>
+    <t xml:space="preserve">アイテムＩＤ２</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketSaveItemShortcutRequest</t>
   </si>
   <si>
@@ -381,9 +492,15 @@
     <t xml:space="preserve">Quests</t>
   </si>
   <si>
+    <t xml:space="preserve">クエストリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">ActiveQuestId</t>
   </si>
   <si>
+    <t xml:space="preserve">アクティブクエストＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketSaveQuestDataRequest</t>
   </si>
   <si>
@@ -396,13 +513,22 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
+    <t xml:space="preserve">クエストデータ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CachePacketQuestRetireRequest</t>
   </si>
   <si>
     <t xml:space="preserve">CacheQuestRetireRequest</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタID</t>
+  </si>
+  <si>
     <t xml:space="preserve">QuestId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クエストID</t>
   </si>
   <si>
     <t xml:space="preserve">CachePacketSaveActiveQuestRequest</t>
@@ -522,10 +648,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,6 +702,9 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +723,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,24 +770,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,10 +801,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,10 +815,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,10 +829,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,10 +843,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,10 +918,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,10 +932,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,10 +946,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,10 +960,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +985,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,10 +1035,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,10 +1049,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +1063,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +1077,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +1091,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +1116,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -960,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,24 +1163,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,10 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,10 +1208,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,10 +1222,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,10 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,10 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1080,10 +1275,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1098,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1325,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1350,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1170,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,24 +1397,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,10 +1428,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,10 +1442,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,10 +1517,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1531,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1340,10 +1556,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,10 +1606,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,10 +1620,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,10 +1634,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,10 +1648,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,10 +1662,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,10 +1676,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,10 +1690,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,10 +1704,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,10 +1718,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,10 +1732,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1757,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1529,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,10 +1807,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,10 +1821,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1846,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
@@ -1612,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,10 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1666,10 +1921,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1683,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,35 +1967,44 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,10 +2012,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,10 +2026,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,10 +2040,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1792,10 +2065,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,40 +2112,46 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,10 +2159,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,10 +2173,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>88</v>
+        <v>120</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1913,10 +2198,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1931,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,10 +2248,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,10 +2262,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,10 +2276,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2025,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2351,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2376,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2097,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,24 +2423,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,10 +2454,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,10 +2468,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>97</v>
+        <v>132</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,10 +2482,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>134</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2195,10 +2507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2213,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2557,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,10 +2571,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>132</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,10 +2585,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>134</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2289,10 +2610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2307,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,24 +2657,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,10 +2688,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,10 +2702,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>97</v>
+        <v>132</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,10 +2716,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>134</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2405,10 +2741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2423,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,10 +2791,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2477,10 +2816,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2495,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,40 +2863,46 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2910,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,10 +2924,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>109</v>
+        <v>146</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,10 +2938,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>110</v>
+        <v>148</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2609,10 +2963,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2627,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,10 +3010,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,10 +3021,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,10 +3035,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>114</v>
+        <v>153</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2700,10 +3060,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2718,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +3110,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,10 +3124,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2783,10 +3149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2801,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,10 +3199,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,7 +3216,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,10 +3227,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +3252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2895,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,10 +3302,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +3316,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2960,10 +3341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2977,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,24 +3387,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,10 +3418,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3053,10 +3443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3071,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,10 +3493,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3125,10 +3518,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3143,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,24 +3565,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,10 +3596,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,10 +3610,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3627,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3638,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,10 +3652,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,10 +3666,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +3680,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,10 +3694,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,10 +3708,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,10 +3722,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,10 +3736,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,10 +3750,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,10 +3764,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,10 +3778,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3362,10 +3803,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3380,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,10 +3853,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3434,10 +3878,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3452,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,24 +3925,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,10 +3956,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,10 +3970,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,10 +3984,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,10 +3998,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,10 +4012,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,10 +4026,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3583,10 +4051,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3601,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,10 +4101,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="161">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -132,100 +132,97 @@
     <t xml:space="preserve">カスタマID</t>
   </si>
   <si>
+    <t xml:space="preserve">CachePacketCreateCharacterRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCreateCharacterRequest</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
+    <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャラクタ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジョブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCreateCharacterResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCreateCharacterResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCharacterDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCharacterDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カスタマＩＤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCharacterDataResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCharacterDataResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャラクタＩＤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レベル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最大ＨＰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻撃力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">経験値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴールド</t>
+  </si>
+  <si>
     <t xml:space="preserve">LastAreaId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最終ログアウトエリアID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CachePacketCreateCharacterRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheCreateCharacterRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャラクタ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ジョブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CachePacketCreateCharacterResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheCreateCharacterResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CachePacketCharacterDataRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheCharacterDataRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カスタマＩＤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CachePacketCharacterDataResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheCharacterDataResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャラクタＩＤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レベル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大ＨＰ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻撃力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防御力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">経験値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゴールド</t>
   </si>
   <si>
     <t xml:space="preserve">最終ログアウトエリアＩＤ</t>
@@ -651,7 +648,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -726,7 +723,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="A10:D10 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,13 +840,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +868,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A10:D10 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,13 +915,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,13 +929,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,13 +957,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +985,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1003,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,13 +1088,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1116,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="A10:D10 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,13 +1205,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,13 +1219,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1275,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1293,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,13 +1322,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1350,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A10:D10 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1467,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A10:D10 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1485,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,13 +1528,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1556,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="A10:D10 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,13 +1603,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,13 +1617,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,10 +1634,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,10 +1648,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,10 +1662,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,10 +1676,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,13 +1687,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,13 +1701,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,13 +1715,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1757,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A10:D10 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1775,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,13 +1804,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,13 +1818,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1846,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,13 +1893,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1921,10 +1918,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2033,20 +2030,6 @@
       </c>
       <c r="D9" s="0" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2051,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="A10:D10 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2083,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,18 +2095,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2184,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2216,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,13 +2231,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,13 +2245,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,13 +2259,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +2287,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2319,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2362,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2394,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,13 +2451,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,13 +2465,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2493,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2525,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,13 +2540,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,13 +2554,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,13 +2568,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2596,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2628,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,13 +2685,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,13 +2699,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2727,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2759,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,13 +2774,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2802,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="A10:D10 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2834,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,18 +2846,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,13 +2907,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,13 +2921,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2965,8 +2948,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2981,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,10 +2993,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,13 +3018,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3046,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A10:D10 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3078,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,13 +3093,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,13 +3107,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3135,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3167,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>25</v>
@@ -3216,10 +3199,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3213,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3238,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3270,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,13 +3285,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,13 +3299,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3344,7 +3327,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3358,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3429,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3461,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,13 +3476,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +3504,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="A10:D10 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3536,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,13 +3579,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,10 +3610,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3624,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,13 +3635,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,10 +3652,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,10 +3666,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,10 +3680,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3694,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,13 +3705,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,13 +3719,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,13 +3733,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,13 +3747,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,13 +3761,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3789,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3821,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,13 +3836,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3864,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A10:D10 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3896,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,13 +3953,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,13 +3967,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,13 +3981,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,13 +3995,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,13 +4009,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4037,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4069,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,13 +4084,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="155">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -190,24 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">レベル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大ＨＰ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻撃力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防御力</t>
   </si>
   <si>
     <t xml:space="preserve">Exp</t>
@@ -648,7 +630,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,7 +705,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="A10:D10 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,10 +797,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,10 +811,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,10 +825,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +850,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A10:D10 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -883,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,10 +914,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,10 +928,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,10 +942,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +967,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="A10:D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,10 +1031,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,10 +1045,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,10 +1059,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,10 +1073,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1098,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="A10:D10 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,10 +1190,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,10 +1204,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,10 +1218,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,10 +1232,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1257,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1290,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1332,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A10:D10 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1365,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,13 +1421,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1449,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A10:D10 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,10 +1513,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1553,10 +1535,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="A10:D10 D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,13 +1627,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,13 +1641,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,55 +1669,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1697,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A10:D10 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1772,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,10 +1761,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +1786,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1861,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,8 +1860,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2051,7 +1991,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="A10:D10 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2066,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,18 +2035,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,13 +2096,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2124,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2199,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,10 +2188,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2227,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2302,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2302,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="A10:D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2377,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,10 +2394,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,10 +2408,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2433,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2508,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,10 +2497,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,10 +2511,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2536,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="A10:D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2611,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,10 +2628,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,10 +2642,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +2667,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2742,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2742,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="A10:D10 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2817,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,18 +2786,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,13 +2847,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +2889,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2964,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +2933,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,13 +2958,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +2986,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A10:D10 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3061,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,7 +3039,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,10 +3050,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3075,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3238,7 +3178,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3253,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,7 +3231,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3242,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3267,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A10:D10 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3429,7 +3369,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3501,10 +3441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="A10:D10 D21"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3663,7 +3603,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>49</v>
@@ -3677,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>51</v>
@@ -3691,13 +3631,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,13 +3645,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,55 +3659,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3687,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3762,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A10:D10 D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3879,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,7 +3785,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,10 +3854,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,10 +3868,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,10 +3882,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,10 +3896,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,10 +3910,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4037,7 +3935,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A10:D10 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4052,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,8 @@
     <sheet name="クエストデータ保存リクエスト" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="クエスト破棄リクエスト" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="アクティブクエスト保存リクエスト" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="装備保存リクエスト" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="装備保存レスポンス" sheetId="32" state="visible" r:id="rId33"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -204,6 +206,18 @@
     <t xml:space="preserve">ゴールド</t>
   </si>
   <si>
+    <t xml:space="preserve">RightEquip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右手装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeftEquip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左手装備</t>
+  </si>
+  <si>
     <t xml:space="preserve">LastAreaId</t>
   </si>
   <si>
@@ -514,6 +528,21 @@
   </si>
   <si>
     <t xml:space="preserve">CacheSaveActiveQuestRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveEquipRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveEquipRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketSaveEquipResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheSaveEquipResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リザルトコード</t>
   </si>
 </sst>
 </file>
@@ -720,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,10 +840,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,10 +854,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,10 +943,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,10 +957,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,10 +971,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +1060,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,10 +1074,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,10 +1088,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,10 +1102,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,10 +1219,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,10 +1233,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,10 +1247,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,10 +1542,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1566,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,10 +1659,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,13 +1670,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,18 +2064,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,13 +2125,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,10 +2217,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,10 +2231,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,10 +2423,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,10 +2437,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2526,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2540,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,10 +2657,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,10 +2671,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,18 +2815,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,13 +2876,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,10 +2893,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2904,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,10 +2962,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,10 +3079,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,10 +3271,244 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3441,10 +3704,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3631,13 +3894,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,13 +3908,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,13 +3922,41 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3702,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +4145,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,10 +4159,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,10 +4173,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,10 +4187,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,10 +4201,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="31"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="162">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -255,12 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">CacheSkillListResponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NormalAttackId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通常攻撃ＩＤ</t>
   </si>
   <si>
     <t xml:space="preserve">SkillId1</t>
@@ -749,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,10 +820,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,10 +834,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +848,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,10 +937,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,10 +951,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,10 +965,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1054,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1068,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1082,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1096,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,10 +1213,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,10 +1227,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,10 +1255,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,13 +1444,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,10 +1536,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,18 +2058,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,13 +2119,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,10 +2211,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2225,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +2417,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,10 +2431,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,10 +2520,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,10 +2534,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,10 +2651,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +2665,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,18 +2809,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,13 +2870,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2887,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +2956,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,13 +2981,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3062,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,10 +3073,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,7 +3254,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,10 +3265,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,7 +3343,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,8 +3392,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3414,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,7 +3474,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,10 +4044,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4138,13 +4132,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -4191,20 +4185,6 @@
       </c>
       <c r="D11" s="0" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t xml:space="preserve">左手装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ＧＭか？</t>
   </si>
   <si>
     <t xml:space="preserve">LastAreaId</t>
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +840,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,10 +854,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,10 +943,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,10 +957,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,10 +971,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,10 +1060,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,10 +1074,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,10 +1088,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1102,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,10 +1219,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,10 +1233,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,10 +1247,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1542,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,10 +1659,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1670,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,18 +2064,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,13 +2125,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,10 +2217,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,10 +2231,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,10 +2423,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,10 +2437,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,10 +2526,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,10 +2540,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2657,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,10 +2671,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,18 +2815,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,13 +2876,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,10 +2893,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +2962,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,10 +3079,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,10 +3271,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3349,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,10 +3704,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3902,7 +3908,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>55</v>
@@ -3916,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>60</v>
@@ -3944,13 +3950,27 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3987,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +4066,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4062,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,10 +4159,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,10 +4173,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,10 +4187,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,10 +4201,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="166">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">キャラクタがいない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ＢＡＮされている</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,10 +804,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,13 +829,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,13 +843,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,13 +857,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,13 +932,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,13 +946,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,13 +1063,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,13 +1105,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,10 +1197,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,13 +1208,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,13 +1222,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,13 +1264,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,13 +1339,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,10 +1431,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,13 +1442,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,13 +1545,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,13 +1620,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,13 +1634,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,13 +1648,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,13 +1662,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,13 +1676,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,13 +1690,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,13 +1704,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,13 +1793,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,13 +1868,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1887,10 +1893,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1975,16 +1981,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,13 +1998,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,18 +2084,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2120,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,13 +2145,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,13 +2220,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,13 +2248,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,13 +2323,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2415,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,13 +2440,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,13 +2454,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,13 +2529,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,13 +2543,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,13 +2557,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,10 +2649,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,13 +2660,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,13 +2674,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,13 +2688,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,13 +2763,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,18 +2835,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,10 +2871,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,13 +2882,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,13 +2896,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,13 +2910,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +2982,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,13 +2993,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,13 +3007,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,13 +3082,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,13 +3096,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,13 +3171,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,10 +3188,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,13 +3199,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,13 +3274,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,13 +3288,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,13 +3363,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,13 +3377,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,13 +3391,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3483,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,13 +3494,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,13 +3508,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,13 +3522,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,10 +3613,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,13 +3624,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,13 +3699,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3726,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -3722,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,10 +3791,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,13 +3802,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,13 +3816,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,10 +3833,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,13 +3844,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,13 +3858,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,13 +3886,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,13 +3900,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,13 +3914,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,13 +3942,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,13 +3970,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,13 +3984,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4007,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,13 +4059,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4082,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,10 +4151,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,13 +4162,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,13 +4176,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,13 +4190,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,13 +4204,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,13 +4218,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,13 +4293,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,8 @@
     <sheet name="アクティブクエスト保存リクエスト" sheetId="30" state="visible" r:id="rId31"/>
     <sheet name="装備保存リクエスト" sheetId="31" state="visible" r:id="rId32"/>
     <sheet name="装備保存レスポンス" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="メールリストリクエスト" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="メールリストレスポンス" sheetId="34" state="visible" r:id="rId35"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="174">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -549,6 +551,30 @@
   </si>
   <si>
     <t xml:space="preserve">リザルトコード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketMailListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheMailListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketMailListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheMailListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MailData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;MailData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールリスト</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1921,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3542,6 +3568,172 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="32"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,6 +42,7 @@
     <sheet name="装備保存レスポンス" sheetId="32" state="visible" r:id="rId33"/>
     <sheet name="メールリストリクエスト" sheetId="33" state="visible" r:id="rId34"/>
     <sheet name="メールリストレスポンス" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="メールフラグ切り替え" sheetId="35" state="visible" r:id="rId36"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="180">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -575,6 +576,24 @@
   </si>
   <si>
     <t xml:space="preserve">メールリスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketChangeMailFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheChangeMailFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ＩＤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フラグ</t>
   </si>
 </sst>
 </file>
@@ -3575,7 +3594,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3734,6 +3753,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="34"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,9 @@
     <sheet name="装備保存レスポンス" sheetId="32" state="visible" r:id="rId33"/>
     <sheet name="メールリストリクエスト" sheetId="33" state="visible" r:id="rId34"/>
     <sheet name="メールリストレスポンス" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="メールフラグ切り替え" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="メール開封" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="メール添付物受信要求" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="メール添付物受信結果" sheetId="37" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="186">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -578,10 +580,10 @@
     <t xml:space="preserve">メールリスト</t>
   </si>
   <si>
-    <t xml:space="preserve">CachePacketChangeMailFlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheChangeMailFlag</t>
+    <t xml:space="preserve">CachePacketMailRead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheMailRead</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -590,10 +592,28 @@
     <t xml:space="preserve">ＩＤ</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フラグ</t>
+    <t xml:space="preserve">CachePacketMailAttachmentRecvRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheMailAttachmentRecvRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketMailAttachmentRecvResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheMailAttachmentRecvResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
   </si>
 </sst>
 </file>
@@ -3758,10 +3778,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3817,18 +3837,224 @@
         <v>177</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>179</v>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="188">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -602,6 +602,12 @@
   </si>
   <si>
     <t xml:space="preserve">CacheMailAttachmentRecvResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlreadyRecv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受信済み</t>
   </si>
   <si>
     <t xml:space="preserve">結果コード</t>
@@ -3928,10 +3934,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3988,31 +3994,31 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,7 +4029,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>184</v>
@@ -4034,13 +4040,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,10 +4057,24 @@
         <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>185</v>
+      <c r="D11" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Cache.xlsx
+++ b/Packet/PacketData/Cache.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="192">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -610,6 +610,12 @@
     <t xml:space="preserve">受信済み</t>
   </si>
   <si>
+    <t xml:space="preserve">MailId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">結果コード</t>
   </si>
   <si>
@@ -617,6 +623,12 @@
   </si>
   <si>
     <t xml:space="preserve">種類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttachmentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添付物ＩＤ</t>
   </si>
   <si>
     <t xml:space="preserve">数量</t>
@@ -736,7 +748,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -811,7 +823,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="8:8 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -956,7 +968,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="8:8 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1073,7 +1085,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="8:8 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,7 +1216,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="8:8 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,7 +1375,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1438,7 +1450,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="8:8 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1555,7 +1567,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="8:8 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +1656,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="8:8 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1803,7 +1815,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="8:8 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,7 +1904,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1967,7 +1979,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2111,7 +2123,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="8:8 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2244,7 +2256,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2347,7 +2359,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2422,7 +2434,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="8:8 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2553,7 +2565,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2656,7 +2668,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="8:8 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2787,7 +2799,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2862,7 +2874,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="8:8 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3009,7 +3021,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3106,7 +3118,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="8:8 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3195,7 +3207,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3298,7 +3310,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3387,7 +3399,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3490,7 +3502,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3621,7 +3633,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="8:8 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3696,7 +3708,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="8:8 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3787,7 +3799,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3862,7 +3874,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="8:8 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3934,10 +3946,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4026,13 +4038,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,7 +4055,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>186</v>
@@ -4054,13 +4066,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,10 +4083,24 @@
         <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>187</v>
+      <c r="D12" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4122,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4198,7 +4224,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4273,7 +4299,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="8:8 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4558,7 +4584,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4633,7 +4659,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4792,7 +4818,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="8:8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
